--- a/data/test data.xlsx
+++ b/data/test data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken/My Drive/Pharmacy/Ken's Folder/Research/Miscitation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken/Documents/GitHub/miscitations/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA485B4A-85DA-0F4A-AFD9-4151182B7C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CAFA0D-A059-BF4B-8657-3737A71BF0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{576325D9-6F49-CF43-9208-2A2C164247AF}"/>
   </bookViews>
@@ -253,18 +253,12 @@
     <t>Web.of.Science.Record</t>
   </si>
   <si>
-    <t>randid</t>
-  </si>
-  <si>
     <t>keep</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>ref_1</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -1016,6 +1010,12 @@
   </si>
   <si>
     <t>WOS:000647813600031</t>
+  </si>
+  <si>
+    <t>ref_id</t>
+  </si>
+  <si>
+    <t>rand_id</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:BX16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="BY15" sqref="BY15"/>
+      <selection activeCell="BU1" sqref="BU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1604,96 +1604,96 @@
         <v>71</v>
       </c>
       <c r="BU1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
-        <v>74</v>
-      </c>
       <c r="BX1" t="s">
-        <v>75</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
         <v>80</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>81</v>
       </c>
-      <c r="K2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" t="s">
         <v>82</v>
       </c>
-      <c r="N2" t="s">
+      <c r="V2" t="s">
         <v>83</v>
       </c>
-      <c r="O2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>84</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" t="s">
         <v>85</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>86</v>
       </c>
-      <c r="X2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>88</v>
-      </c>
       <c r="AF2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG2">
         <v>29</v>
@@ -1711,28 +1711,28 @@
         <v>2</v>
       </c>
       <c r="AL2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN2" t="s">
         <v>89</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>90</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>91</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS2" t="s">
         <v>92</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>94</v>
       </c>
       <c r="AT2" s="1">
         <v>44899</v>
@@ -1747,16 +1747,16 @@
         <v>10316</v>
       </c>
       <c r="AX2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB2">
         <v>2102</v>
@@ -1765,13 +1765,13 @@
         <v>2108</v>
       </c>
       <c r="BE2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BF2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BG2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BH2" s="2">
         <v>44531</v>
@@ -1780,16 +1780,16 @@
         <v>7</v>
       </c>
       <c r="BJ2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL2" t="s">
         <v>97</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BM2" t="s">
         <v>98</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>100</v>
       </c>
       <c r="BN2">
         <v>34600606</v>
@@ -1798,10 +1798,10 @@
         <v>44753</v>
       </c>
       <c r="BS2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BT2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU2">
         <v>189</v>
@@ -1818,91 +1818,91 @@
     </row>
     <row r="3" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
         <v>103</v>
       </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>104</v>
       </c>
-      <c r="G3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" t="s">
         <v>105</v>
       </c>
-      <c r="J3" t="s">
+      <c r="V3" t="s">
         <v>106</v>
       </c>
-      <c r="K3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" t="s">
-        <v>78</v>
-      </c>
-      <c r="S3" t="s">
-        <v>78</v>
-      </c>
-      <c r="T3" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>107</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" t="s">
         <v>108</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>109</v>
       </c>
-      <c r="X3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="AC3" t="s">
         <v>110</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AD3" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>112</v>
       </c>
-      <c r="AD3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>114</v>
-      </c>
       <c r="AF3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG3">
         <v>214</v>
@@ -1920,28 +1920,28 @@
         <v>25</v>
       </c>
       <c r="AL3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN3" t="s">
         <v>115</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AO3" t="s">
         <v>116</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
         <v>117</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AQ3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR3" t="s">
         <v>118</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AS3" t="s">
         <v>119</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>121</v>
       </c>
       <c r="AT3" s="1">
         <v>44822</v>
@@ -1956,16 +1956,16 @@
         <v>11</v>
       </c>
       <c r="AX3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB3">
         <v>1172</v>
@@ -1974,49 +1974,49 @@
         <v>1191</v>
       </c>
       <c r="BE3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BF3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BG3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI3">
         <v>20</v>
       </c>
       <c r="BJ3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL3" t="s">
         <v>97</v>
       </c>
-      <c r="BK3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>99</v>
-      </c>
       <c r="BM3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BN3">
         <v>30326501</v>
       </c>
       <c r="BO3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ3" t="s">
         <v>126</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>128</v>
       </c>
       <c r="BR3" s="3">
         <v>44753</v>
       </c>
       <c r="BS3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BT3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU3">
         <v>756</v>
@@ -2033,97 +2033,97 @@
     </row>
     <row r="4" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
         <v>130</v>
       </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" t="s">
         <v>131</v>
       </c>
-      <c r="G4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="V4" t="s">
         <v>132</v>
       </c>
-      <c r="J4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" t="s">
-        <v>78</v>
-      </c>
-      <c r="T4" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>133</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" t="s">
         <v>134</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>135</v>
       </c>
-      <c r="X4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>136</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>137</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>138</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>139</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>140</v>
       </c>
-      <c r="AD4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>142</v>
-      </c>
       <c r="AF4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG4">
         <v>114</v>
@@ -2141,28 +2141,28 @@
         <v>151</v>
       </c>
       <c r="AL4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN4" t="s">
         <v>115</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
         <v>116</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>117</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AQ4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR4" t="s">
         <v>118</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AS4" t="s">
         <v>119</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>121</v>
       </c>
       <c r="AT4" s="1">
         <v>44856</v>
@@ -2177,16 +2177,16 @@
         <v>16</v>
       </c>
       <c r="AX4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB4">
         <v>1589</v>
@@ -2195,49 +2195,49 @@
         <v>1599</v>
       </c>
       <c r="BE4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BF4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BG4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI4">
         <v>11</v>
       </c>
       <c r="BJ4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL4" t="s">
         <v>97</v>
       </c>
-      <c r="BK4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>99</v>
-      </c>
       <c r="BM4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BN4">
         <v>31638686</v>
       </c>
       <c r="BO4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BP4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BQ4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BR4" s="3">
         <v>44753</v>
       </c>
       <c r="BS4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BT4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU4">
         <v>1007</v>
@@ -2254,91 +2254,91 @@
     </row>
     <row r="5" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
         <v>148</v>
       </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>149</v>
       </c>
-      <c r="G5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" t="s">
         <v>150</v>
       </c>
-      <c r="I5" t="s">
+      <c r="V5" t="s">
         <v>151</v>
       </c>
-      <c r="J5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>78</v>
-      </c>
-      <c r="R5" t="s">
-        <v>78</v>
-      </c>
-      <c r="S5" t="s">
-        <v>78</v>
-      </c>
-      <c r="T5" t="s">
-        <v>78</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>152</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
         <v>153</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>154</v>
       </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>155</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>156</v>
       </c>
-      <c r="AA5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>158</v>
-      </c>
       <c r="AF5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG5">
         <v>137</v>
@@ -2356,28 +2356,28 @@
         <v>53</v>
       </c>
       <c r="AL5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN5" t="s">
         <v>115</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AO5" t="s">
         <v>116</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AP5" t="s">
         <v>117</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AQ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR5" t="s">
         <v>118</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AS5" t="s">
         <v>119</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>121</v>
       </c>
       <c r="AT5" s="1">
         <v>44632</v>
@@ -2392,16 +2392,16 @@
         <v>10</v>
       </c>
       <c r="AX5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB5">
         <v>983</v>
@@ -2410,46 +2410,46 @@
         <v>997</v>
       </c>
       <c r="BE5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BF5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="BG5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI5">
         <v>15</v>
       </c>
       <c r="BJ5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL5" t="s">
         <v>97</v>
       </c>
-      <c r="BK5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>99</v>
-      </c>
       <c r="BM5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BN5">
         <v>30860564</v>
       </c>
       <c r="BP5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BQ5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BR5" s="3">
         <v>44753</v>
       </c>
       <c r="BS5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BT5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU5">
         <v>1223</v>
@@ -2466,85 +2466,85 @@
     </row>
     <row r="6" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
         <v>163</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>164</v>
       </c>
-      <c r="G6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U6" t="s">
         <v>165</v>
       </c>
-      <c r="J6" t="s">
+      <c r="W6" t="s">
         <v>166</v>
       </c>
-      <c r="K6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R6" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" t="s">
-        <v>78</v>
-      </c>
-      <c r="T6" t="s">
-        <v>78</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s">
         <v>167</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Z6" t="s">
         <v>168</v>
       </c>
-      <c r="X6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>169</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
         <v>170</v>
       </c>
-      <c r="AA6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>172</v>
-      </c>
       <c r="AF6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG6">
         <v>53</v>
@@ -2562,28 +2562,28 @@
         <v>53</v>
       </c>
       <c r="AL6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN6" t="s">
         <v>173</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AO6" t="s">
         <v>174</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AP6" t="s">
         <v>175</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AQ6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR6" t="s">
         <v>176</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AS6" t="s">
         <v>177</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>179</v>
       </c>
       <c r="AT6" s="1">
         <v>44901</v>
@@ -2598,16 +2598,16 @@
         <v>23</v>
       </c>
       <c r="AX6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB6">
         <v>2237</v>
@@ -2616,46 +2616,46 @@
         <v>2245</v>
       </c>
       <c r="BE6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BF6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BG6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI6">
         <v>9</v>
       </c>
       <c r="BJ6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL6" t="s">
         <v>97</v>
       </c>
-      <c r="BK6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>99</v>
-      </c>
       <c r="BM6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BN6">
         <v>30575457</v>
       </c>
       <c r="BP6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BQ6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BR6" s="3">
         <v>44753</v>
       </c>
       <c r="BS6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BT6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU6">
         <v>1227</v>
@@ -2672,94 +2672,94 @@
     </row>
     <row r="7" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s">
         <v>184</v>
       </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>76</v>
+      </c>
+      <c r="R7" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U7" t="s">
         <v>185</v>
       </c>
-      <c r="G7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="V7" t="s">
         <v>186</v>
       </c>
-      <c r="J7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>78</v>
-      </c>
-      <c r="R7" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" t="s">
-        <v>78</v>
-      </c>
-      <c r="T7" t="s">
-        <v>78</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>187</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" t="s">
         <v>188</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Z7" t="s">
         <v>189</v>
       </c>
-      <c r="X7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
         <v>190</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB7" t="s">
         <v>191</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>192</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>193</v>
       </c>
-      <c r="AC7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>195</v>
-      </c>
       <c r="AF7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG7">
         <v>69</v>
@@ -2777,28 +2777,28 @@
         <v>56</v>
       </c>
       <c r="AL7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN7" t="s">
         <v>173</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AO7" t="s">
         <v>174</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AP7" t="s">
         <v>175</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AQ7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR7" t="s">
         <v>176</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AS7" t="s">
         <v>177</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>179</v>
       </c>
       <c r="AT7" s="1">
         <v>44845</v>
@@ -2813,16 +2813,16 @@
         <v>15</v>
       </c>
       <c r="AX7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB7">
         <v>1452</v>
@@ -2831,43 +2831,43 @@
         <v>1462</v>
       </c>
       <c r="BE7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="BF7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BG7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI7">
         <v>11</v>
       </c>
       <c r="BJ7" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL7" t="s">
         <v>97</v>
       </c>
-      <c r="BK7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>99</v>
-      </c>
       <c r="BM7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="BN7">
         <v>30304648</v>
       </c>
       <c r="BO7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BR7" s="3">
         <v>44753</v>
       </c>
       <c r="BS7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BT7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU7">
         <v>1321</v>
@@ -2884,97 +2884,97 @@
     </row>
     <row r="8" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" t="s">
         <v>200</v>
       </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" t="s">
         <v>201</v>
       </c>
-      <c r="G8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="V8" t="s">
         <v>202</v>
       </c>
-      <c r="J8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>78</v>
-      </c>
-      <c r="R8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S8" t="s">
-        <v>78</v>
-      </c>
-      <c r="T8" t="s">
-        <v>78</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>203</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8" t="s">
         <v>204</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Z8" t="s">
         <v>205</v>
       </c>
-      <c r="X8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y8" t="s">
+      <c r="AA8" t="s">
         <v>206</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AB8" t="s">
         <v>207</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>208</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>209</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>210</v>
       </c>
-      <c r="AD8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>212</v>
-      </c>
       <c r="AF8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG8">
         <v>219</v>
@@ -2992,28 +2992,28 @@
         <v>125</v>
       </c>
       <c r="AL8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN8" t="s">
         <v>115</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AO8" t="s">
         <v>116</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AP8" t="s">
         <v>117</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AQ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR8" t="s">
         <v>118</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AS8" t="s">
         <v>119</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>121</v>
       </c>
       <c r="AT8" s="1">
         <v>44822</v>
@@ -3028,16 +3028,16 @@
         <v>11</v>
       </c>
       <c r="AX8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB8">
         <v>1131</v>
@@ -3046,49 +3046,49 @@
         <v>1150</v>
       </c>
       <c r="BE8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BF8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BG8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI8">
         <v>20</v>
       </c>
       <c r="BJ8" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL8" t="s">
         <v>97</v>
       </c>
-      <c r="BK8" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>99</v>
-      </c>
       <c r="BM8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BN8">
         <v>30326495</v>
       </c>
       <c r="BO8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BP8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BQ8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BR8" s="3">
         <v>44753</v>
       </c>
       <c r="BS8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BT8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU8">
         <v>1350</v>
@@ -3105,85 +3105,85 @@
     </row>
     <row r="9" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
         <v>217</v>
       </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" t="s">
         <v>218</v>
       </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="V9" t="s">
         <v>219</v>
       </c>
-      <c r="J9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>78</v>
-      </c>
-      <c r="R9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S9" t="s">
-        <v>78</v>
-      </c>
-      <c r="T9" t="s">
-        <v>78</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y9" t="s">
         <v>220</v>
       </c>
-      <c r="V9" t="s">
+      <c r="Z9" t="s">
         <v>221</v>
       </c>
-      <c r="X9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="AA9" t="s">
         <v>222</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AB9" t="s">
         <v>223</v>
       </c>
-      <c r="AA9" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>225</v>
-      </c>
       <c r="AF9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG9">
         <v>123</v>
@@ -3201,28 +3201,28 @@
         <v>16</v>
       </c>
       <c r="AL9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN9" t="s">
         <v>115</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AO9" t="s">
         <v>116</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AP9" t="s">
         <v>117</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AQ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR9" t="s">
         <v>118</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AS9" t="s">
         <v>119</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>121</v>
       </c>
       <c r="AT9" s="1">
         <v>44727</v>
@@ -3237,16 +3237,16 @@
         <v>23</v>
       </c>
       <c r="AX9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB9">
         <v>2357</v>
@@ -3255,43 +3255,43 @@
         <v>2369</v>
       </c>
       <c r="BE9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BF9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="BG9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI9">
         <v>13</v>
       </c>
       <c r="BJ9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL9" t="s">
         <v>97</v>
       </c>
-      <c r="BK9" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>99</v>
-      </c>
       <c r="BM9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BN9">
         <v>34128998</v>
       </c>
       <c r="BO9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BR9" s="3">
         <v>44753</v>
       </c>
       <c r="BS9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="BT9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU9">
         <v>1478</v>
@@ -3308,88 +3308,88 @@
     </row>
     <row r="10" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
         <v>231</v>
       </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>232</v>
       </c>
-      <c r="G10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" t="s">
         <v>233</v>
       </c>
-      <c r="I10" t="s">
+      <c r="V10" t="s">
         <v>234</v>
       </c>
-      <c r="J10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" t="s">
-        <v>78</v>
-      </c>
-      <c r="T10" t="s">
-        <v>78</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>235</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y10" t="s">
         <v>236</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Z10" t="s">
         <v>237</v>
       </c>
-      <c r="X10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y10" t="s">
+      <c r="AB10" t="s">
         <v>238</v>
       </c>
-      <c r="Z10" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>240</v>
-      </c>
       <c r="AF10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG10">
         <v>49</v>
@@ -3407,28 +3407,28 @@
         <v>1</v>
       </c>
       <c r="AL10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN10" t="s">
         <v>115</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AO10" t="s">
         <v>116</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AP10" t="s">
         <v>117</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AQ10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR10" t="s">
         <v>118</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AS10" t="s">
         <v>119</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>121</v>
       </c>
       <c r="AT10" s="1">
         <v>44721</v>
@@ -3443,16 +3443,16 @@
         <v>22</v>
       </c>
       <c r="AX10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB10">
         <v>2301</v>
@@ -3461,43 +3461,43 @@
         <v>2309</v>
       </c>
       <c r="BE10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BF10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="BG10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI10">
         <v>9</v>
       </c>
       <c r="BJ10" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL10" t="s">
         <v>97</v>
       </c>
-      <c r="BK10" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>99</v>
-      </c>
       <c r="BM10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="BN10">
         <v>32515821</v>
       </c>
       <c r="BO10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BR10" s="3">
         <v>44753</v>
       </c>
       <c r="BS10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="BT10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU10">
         <v>1532</v>
@@ -3514,97 +3514,97 @@
     </row>
     <row r="11" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
         <v>245</v>
       </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U11" t="s">
         <v>246</v>
       </c>
-      <c r="G11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="V11" t="s">
         <v>247</v>
       </c>
-      <c r="J11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O11" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>78</v>
-      </c>
-      <c r="R11" t="s">
-        <v>78</v>
-      </c>
-      <c r="S11" t="s">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>248</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y11" t="s">
         <v>249</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Z11" t="s">
         <v>250</v>
       </c>
-      <c r="X11" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="AA11" t="s">
         <v>251</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
         <v>252</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
         <v>253</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AD11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>257</v>
-      </c>
       <c r="AF11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG11">
         <v>62</v>
@@ -3622,28 +3622,28 @@
         <v>75</v>
       </c>
       <c r="AL11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN11" t="s">
         <v>89</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AO11" t="s">
         <v>90</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AP11" t="s">
         <v>91</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AQ11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS11" t="s">
         <v>92</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>94</v>
       </c>
       <c r="AT11" s="1">
         <v>44581</v>
@@ -3658,16 +3658,16 @@
         <v>10117</v>
       </c>
       <c r="AX11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB11">
         <v>241</v>
@@ -3676,49 +3676,49 @@
         <v>250</v>
       </c>
       <c r="BE11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BF11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="BG11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI11">
         <v>10</v>
       </c>
       <c r="BJ11" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL11" t="s">
         <v>97</v>
       </c>
-      <c r="BK11" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>99</v>
-      </c>
       <c r="BM11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BN11">
         <v>29137869</v>
       </c>
       <c r="BO11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BP11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BQ11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BR11" s="3">
         <v>44753</v>
       </c>
       <c r="BS11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BT11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU11">
         <v>1540</v>
@@ -3735,97 +3735,97 @@
     </row>
     <row r="12" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s">
         <v>263</v>
       </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="V12" t="s">
         <v>265</v>
       </c>
-      <c r="J12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O12" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>78</v>
-      </c>
-      <c r="R12" t="s">
-        <v>78</v>
-      </c>
-      <c r="S12" t="s">
-        <v>78</v>
-      </c>
-      <c r="T12" t="s">
-        <v>78</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="W12" t="s">
         <v>266</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y12" t="s">
         <v>267</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Z12" t="s">
         <v>268</v>
       </c>
-      <c r="X12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
         <v>269</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AB12" t="s">
         <v>270</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
         <v>271</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
         <v>272</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AE12" t="s">
         <v>273</v>
       </c>
-      <c r="AD12" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>275</v>
-      </c>
       <c r="AF12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG12">
         <v>218</v>
@@ -3843,28 +3843,28 @@
         <v>7</v>
       </c>
       <c r="AL12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN12" t="s">
         <v>89</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AO12" t="s">
         <v>90</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AP12" t="s">
         <v>91</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AQ12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS12" t="s">
         <v>92</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>94</v>
       </c>
       <c r="AT12" s="1">
         <v>44801</v>
@@ -3879,16 +3879,16 @@
         <v>10302</v>
       </c>
       <c r="AX12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB12">
         <v>786</v>
@@ -3897,13 +3897,13 @@
         <v>802</v>
       </c>
       <c r="BE12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BF12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="BG12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BH12" s="2">
         <v>44409</v>
@@ -3912,37 +3912,37 @@
         <v>17</v>
       </c>
       <c r="BJ12" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL12" t="s">
         <v>97</v>
       </c>
-      <c r="BK12" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>99</v>
-      </c>
       <c r="BM12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BN12">
         <v>34175022</v>
       </c>
       <c r="BO12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BP12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BQ12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BR12" s="3">
         <v>44753</v>
       </c>
       <c r="BS12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BT12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU12">
         <v>1564</v>
@@ -3959,82 +3959,82 @@
     </row>
     <row r="13" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
         <v>281</v>
       </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13" t="s">
+        <v>76</v>
+      </c>
+      <c r="U13" t="s">
         <v>282</v>
       </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="V13" t="s">
         <v>283</v>
       </c>
-      <c r="J13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" t="s">
-        <v>78</v>
-      </c>
-      <c r="P13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>78</v>
-      </c>
-      <c r="R13" t="s">
-        <v>78</v>
-      </c>
-      <c r="S13" t="s">
-        <v>78</v>
-      </c>
-      <c r="T13" t="s">
-        <v>78</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="W13" t="s">
         <v>284</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s">
         <v>285</v>
       </c>
-      <c r="W13" t="s">
+      <c r="Z13" t="s">
         <v>286</v>
       </c>
-      <c r="X13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>288</v>
-      </c>
       <c r="AF13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG13">
         <v>146</v>
@@ -4052,28 +4052,28 @@
         <v>28</v>
       </c>
       <c r="AL13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN13" t="s">
         <v>89</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AO13" t="s">
         <v>90</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AP13" t="s">
         <v>91</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AQ13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS13" t="s">
         <v>92</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>94</v>
       </c>
       <c r="AT13" s="1">
         <v>44857</v>
@@ -4088,16 +4088,16 @@
         <v>10310</v>
       </c>
       <c r="AX13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB13">
         <v>1528</v>
@@ -4106,22 +4106,22 @@
         <v>1540</v>
       </c>
       <c r="BG13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI13">
         <v>13</v>
       </c>
       <c r="BJ13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL13" t="s">
         <v>97</v>
       </c>
-      <c r="BK13" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>99</v>
-      </c>
       <c r="BM13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BN13">
         <v>34688371</v>
@@ -4130,10 +4130,10 @@
         <v>44753</v>
       </c>
       <c r="BS13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BT13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU13">
         <v>1735</v>
@@ -4150,82 +4150,82 @@
     </row>
     <row r="14" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
         <v>291</v>
       </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="J14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U14" t="s">
         <v>292</v>
       </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="V14" t="s">
         <v>293</v>
       </c>
-      <c r="J14" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" t="s">
-        <v>83</v>
-      </c>
-      <c r="O14" t="s">
-        <v>78</v>
-      </c>
-      <c r="P14" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>78</v>
-      </c>
-      <c r="R14" t="s">
-        <v>78</v>
-      </c>
-      <c r="S14" t="s">
-        <v>78</v>
-      </c>
-      <c r="T14" t="s">
-        <v>78</v>
-      </c>
-      <c r="U14" t="s">
+      <c r="W14" t="s">
         <v>294</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s">
         <v>295</v>
       </c>
-      <c r="W14" t="s">
+      <c r="Z14" t="s">
         <v>296</v>
       </c>
-      <c r="X14" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>298</v>
-      </c>
       <c r="AF14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG14">
         <v>53</v>
@@ -4243,28 +4243,28 @@
         <v>56</v>
       </c>
       <c r="AL14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN14" t="s">
         <v>173</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AO14" t="s">
         <v>174</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AP14" t="s">
         <v>175</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AQ14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR14" t="s">
         <v>176</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AS14" t="s">
         <v>177</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>179</v>
       </c>
       <c r="AT14" s="1">
         <v>44652</v>
@@ -4279,16 +4279,16 @@
         <v>13</v>
       </c>
       <c r="AX14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB14">
         <v>1248</v>
@@ -4297,46 +4297,46 @@
         <v>1260</v>
       </c>
       <c r="BE14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BF14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BG14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI14">
         <v>13</v>
       </c>
       <c r="BJ14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL14" t="s">
         <v>97</v>
       </c>
-      <c r="BK14" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>99</v>
-      </c>
       <c r="BM14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BN14">
         <v>33789013</v>
       </c>
       <c r="BP14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BQ14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BR14" s="3">
         <v>44753</v>
       </c>
       <c r="BS14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="BT14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU14">
         <v>1776</v>
@@ -4353,73 +4353,73 @@
     </row>
     <row r="15" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I15" t="s">
+        <v>301</v>
+      </c>
+      <c r="J15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" t="s">
+        <v>76</v>
+      </c>
+      <c r="T15" t="s">
+        <v>76</v>
+      </c>
+      <c r="U15" t="s">
+        <v>302</v>
+      </c>
+      <c r="V15" t="s">
         <v>303</v>
       </c>
-      <c r="J15" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O15" t="s">
-        <v>78</v>
-      </c>
-      <c r="P15" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R15" t="s">
-        <v>78</v>
-      </c>
-      <c r="S15" t="s">
-        <v>78</v>
-      </c>
-      <c r="T15" t="s">
-        <v>78</v>
-      </c>
-      <c r="U15" t="s">
-        <v>304</v>
-      </c>
-      <c r="V15" t="s">
-        <v>305</v>
-      </c>
       <c r="X15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AF15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG15">
         <v>27</v>
@@ -4437,28 +4437,28 @@
         <v>4</v>
       </c>
       <c r="AL15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN15" t="s">
         <v>115</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AO15" t="s">
         <v>116</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AP15" t="s">
         <v>117</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AQ15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR15" t="s">
         <v>118</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AS15" t="s">
         <v>119</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>121</v>
       </c>
       <c r="AT15" s="1">
         <v>44630</v>
@@ -4473,16 +4473,16 @@
         <v>10</v>
       </c>
       <c r="AX15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB15">
         <v>970</v>
@@ -4491,49 +4491,49 @@
         <v>975</v>
       </c>
       <c r="BE15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="BF15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="BG15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI15">
         <v>6</v>
       </c>
       <c r="BJ15" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL15" t="s">
         <v>97</v>
       </c>
-      <c r="BK15" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>99</v>
-      </c>
       <c r="BM15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="BN15">
         <v>32119076</v>
       </c>
       <c r="BO15" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ15" t="s">
         <v>126</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>128</v>
       </c>
       <c r="BR15" s="3">
         <v>44753</v>
       </c>
       <c r="BS15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BT15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU15">
         <v>1933</v>
@@ -4550,97 +4550,97 @@
     </row>
     <row r="16" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
         <v>310</v>
       </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s">
         <v>311</v>
       </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="V16" t="s">
         <v>312</v>
       </c>
-      <c r="J16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N16" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>78</v>
-      </c>
-      <c r="R16" t="s">
-        <v>78</v>
-      </c>
-      <c r="S16" t="s">
-        <v>78</v>
-      </c>
-      <c r="T16" t="s">
-        <v>78</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="W16" t="s">
         <v>313</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s">
         <v>314</v>
       </c>
-      <c r="W16" t="s">
+      <c r="Z16" t="s">
         <v>315</v>
       </c>
-      <c r="X16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y16" t="s">
+      <c r="AA16" t="s">
         <v>316</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AB16" t="s">
         <v>317</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
         <v>318</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AD16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE16" t="s">
         <v>319</v>
       </c>
-      <c r="AC16" t="s">
-        <v>320</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>320</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>321</v>
-      </c>
       <c r="AF16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG16">
         <v>68</v>
@@ -4658,28 +4658,28 @@
         <v>2</v>
       </c>
       <c r="AL16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN16" t="s">
         <v>89</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AO16" t="s">
         <v>90</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AP16" t="s">
         <v>91</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AQ16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS16" t="s">
         <v>92</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>94</v>
       </c>
       <c r="AT16" s="1">
         <v>44689</v>
@@ -4694,16 +4694,16 @@
         <v>10286</v>
       </c>
       <c r="AX16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BB16">
         <v>1770</v>
@@ -4712,13 +4712,13 @@
         <v>1780</v>
       </c>
       <c r="BE16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="BF16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BG16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BH16" s="2">
         <v>44317</v>
@@ -4727,31 +4727,31 @@
         <v>11</v>
       </c>
       <c r="BJ16" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL16" t="s">
         <v>97</v>
       </c>
-      <c r="BK16" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>99</v>
-      </c>
       <c r="BM16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BN16">
         <v>33714360</v>
       </c>
       <c r="BO16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BR16" s="3">
         <v>44753</v>
       </c>
       <c r="BS16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BT16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU16">
         <v>2295</v>

--- a/data/test data.xlsx
+++ b/data/test data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken/Documents/GitHub/miscitations/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CAFA0D-A059-BF4B-8657-3737A71BF0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFE303C-3011-F847-BC7C-C9DCFD69CCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{576325D9-6F49-CF43-9208-2A2C164247AF}"/>
+    <workbookView xWindow="24740" yWindow="6180" windowWidth="27640" windowHeight="16940" xr2:uid="{576325D9-6F49-CF43-9208-2A2C164247AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50069828-1285-8045-BFD0-3F96EACE6F8A}">
   <dimension ref="A1:BX16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="BU1" sqref="BU1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BL14" sqref="BL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
